--- a/Raw_data/DC - Data.xlsx
+++ b/Raw_data/DC - Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kw/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pratyusatripathy/my_work/fund_analysis/Raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC7008E-3443-D742-85BE-789A7AB0DDB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A04895-A855-884D-9C4D-474C3151D4C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="23260" windowHeight="12460" xr2:uid="{13BD8685-10F8-554F-9C86-04E35025B8F3}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20460" xr2:uid="{13BD8685-10F8-554F-9C86-04E35025B8F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Performance Data" sheetId="2" r:id="rId1"/>
@@ -144,10 +144,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.0000%"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.000%"/>
+    <numFmt numFmtId="180" formatCode="0.000000%"/>
+    <numFmt numFmtId="181" formatCode="0.00000%"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -196,7 +198,7 @@
       <name val="Oxygen"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -206,6 +208,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,7 +302,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -347,9 +361,6 @@
     <xf numFmtId="17" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -373,6 +384,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -722,11 +748,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7B74989-0D8C-CC49-8DAF-2481E128DE32}">
   <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:E6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.6640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="24.1640625" style="3" customWidth="1"/>
@@ -738,83 +764,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="26"/>
+      <c r="B1" s="25"/>
       <c r="C1" s="6"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="26"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="6"/>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="26"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="26"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="26"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="28"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="27"/>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="26"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="5">
         <v>0.12</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="8"/>
+      <c r="G7" s="30">
+        <f>C15*12</f>
+        <v>1.4750000000000041E-2</v>
+      </c>
     </row>
     <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="26"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="26"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="26"/>
+      <c r="B10" s="25"/>
       <c r="C10" s="9" t="s">
         <v>25</v>
       </c>
@@ -839,10 +869,10 @@
       <c r="G11" s="15"/>
     </row>
     <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="32">
         <f>C11+(C11*18%)</f>
         <v>1.4750000000000001E-2</v>
       </c>
@@ -855,23 +885,23 @@
       <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26" t="s">
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26" t="s">
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="L13" s="26"/>
+      <c r="L13" s="25"/>
     </row>
     <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
@@ -911,14 +941,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="13" x14ac:dyDescent="0.2">
       <c r="A15" s="19">
         <v>44228</v>
       </c>
       <c r="B15" s="4">
         <v>5.4302715135756E-3</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="31">
         <v>1.2291666666666701E-3</v>
       </c>
       <c r="D15" s="6" t="s">
@@ -931,7 +961,10 @@
       <c r="F15" s="4">
         <v>5.2949999999999994E-3</v>
       </c>
-      <c r="G15" s="4"/>
+      <c r="G15" s="29">
+        <f>E15+1</f>
+        <v>1.0042011048469088</v>
+      </c>
       <c r="H15" s="6" t="s">
         <v>28</v>
       </c>
@@ -948,14 +981,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="13" x14ac:dyDescent="0.2">
       <c r="A16" s="19">
         <v>44256</v>
       </c>
       <c r="B16" s="4">
         <v>7.1475462014363653E-3</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="31">
         <v>1.2291666666666701E-3</v>
       </c>
       <c r="D16" s="6" t="s">
@@ -968,7 +1001,10 @@
       <c r="F16" s="4">
         <v>2.4940000000000001E-3</v>
       </c>
-      <c r="G16" s="4"/>
+      <c r="G16" s="29">
+        <f>(1+E16)*G15</f>
+        <v>1.0101443481146279</v>
+      </c>
       <c r="H16" s="6" t="s">
         <v>28</v>
       </c>
@@ -985,14 +1021,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="13" x14ac:dyDescent="0.2">
       <c r="A17" s="19">
         <v>44287</v>
       </c>
       <c r="B17" s="4">
         <v>1.169997807550315E-2</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="31">
         <v>1.2291666666666701E-3</v>
       </c>
       <c r="D17" s="6" t="s">
@@ -1005,7 +1041,10 @@
       <c r="F17" s="4">
         <v>7.0009999999999994E-3</v>
       </c>
-      <c r="G17" s="4"/>
+      <c r="G17" s="29">
+        <f t="shared" ref="G17:G69" si="1">(1+E17)*G16</f>
+        <v>1.0207213790794383</v>
+      </c>
       <c r="H17" s="6" t="s">
         <v>28</v>
       </c>
@@ -1022,14 +1061,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="13" x14ac:dyDescent="0.2">
       <c r="A18" s="19">
         <v>44317</v>
       </c>
       <c r="B18" s="4">
         <v>7.4000000000000003E-3</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="31">
         <v>1.2291666666666701E-3</v>
       </c>
       <c r="D18" s="6" t="s">
@@ -1042,7 +1081,10 @@
       <c r="F18" s="4">
         <v>3.8629999999999997E-3</v>
       </c>
-      <c r="G18" s="4"/>
+      <c r="G18" s="29">
+        <f t="shared" si="1"/>
+        <v>1.0270200805895076</v>
+      </c>
       <c r="H18" s="6" t="s">
         <v>28</v>
       </c>
@@ -1059,14 +1101,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="13" x14ac:dyDescent="0.2">
       <c r="A19" s="19">
         <v>44348</v>
       </c>
       <c r="B19" s="4">
         <v>9.1999999999999998E-3</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="31">
         <v>1.2291666666666701E-3</v>
       </c>
       <c r="D19" s="6" t="s">
@@ -1079,7 +1121,10 @@
       <c r="F19" s="4">
         <v>4.2199999999999998E-3</v>
       </c>
-      <c r="G19" s="4"/>
+      <c r="G19" s="29">
+        <f t="shared" si="1"/>
+        <v>1.035206286481873</v>
+      </c>
       <c r="H19" s="6" t="s">
         <v>28</v>
       </c>
@@ -1096,14 +1141,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="13" x14ac:dyDescent="0.2">
       <c r="A20" s="19">
         <v>44378</v>
       </c>
       <c r="B20" s="4">
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="31">
         <v>1.2291666666666701E-3</v>
       </c>
       <c r="D20" s="6" t="s">
@@ -1116,7 +1161,10 @@
       <c r="F20" s="4">
         <v>4.8010000000000006E-3</v>
       </c>
-      <c r="G20" s="4"/>
+      <c r="G20" s="29">
+        <f t="shared" si="1"/>
+        <v>1.0437683051429834</v>
+      </c>
       <c r="H20" s="6" t="s">
         <v>28</v>
       </c>
@@ -1133,17 +1181,17 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="13" x14ac:dyDescent="0.2">
       <c r="A21" s="19">
         <v>44409</v>
       </c>
       <c r="B21" s="4">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="C21" s="4">
-        <v>1.2291666666666701E-3</v>
-      </c>
-      <c r="D21" s="21" t="s">
+      <c r="C21" s="31">
+        <v>1.2291666666666701E-3</v>
+      </c>
+      <c r="D21" s="20" t="s">
         <v>28</v>
       </c>
       <c r="E21" s="4">
@@ -1153,7 +1201,10 @@
       <c r="F21" s="4">
         <v>1.722E-3</v>
       </c>
-      <c r="G21" s="4"/>
+      <c r="G21" s="29">
+        <f t="shared" si="1"/>
+        <v>1.0492698339180078</v>
+      </c>
       <c r="H21" s="6" t="s">
         <v>28</v>
       </c>
@@ -1170,14 +1221,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="13" x14ac:dyDescent="0.2">
       <c r="A22" s="19">
         <v>44440</v>
       </c>
       <c r="B22" s="4">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="31">
         <v>1.2291666666666701E-3</v>
       </c>
       <c r="D22" s="6" t="s">
@@ -1190,7 +1241,10 @@
       <c r="F22" s="4">
         <v>1.81E-3</v>
       </c>
-      <c r="G22" s="4"/>
+      <c r="G22" s="29">
+        <f t="shared" si="1"/>
+        <v>1.0518624047993137</v>
+      </c>
       <c r="H22" s="6" t="s">
         <v>28</v>
       </c>
@@ -1207,14 +1261,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="13" x14ac:dyDescent="0.2">
       <c r="A23" s="19">
         <v>44470</v>
       </c>
       <c r="B23" s="4">
         <v>4.4999999999999997E-3</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="31">
         <v>1.2291666666666701E-3</v>
       </c>
       <c r="D23" s="6" t="s">
@@ -1227,7 +1281,10 @@
       <c r="F23" s="4">
         <v>1.7819999999999999E-3</v>
       </c>
-      <c r="G23" s="4"/>
+      <c r="G23" s="29">
+        <f t="shared" si="1"/>
+        <v>1.0553028714150114</v>
+      </c>
       <c r="H23" s="6" t="s">
         <v>28</v>
       </c>
@@ -1244,14 +1301,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="13" x14ac:dyDescent="0.2">
       <c r="A24" s="19">
         <v>44501</v>
       </c>
       <c r="B24" s="4">
         <v>8.2000000000000007E-3</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="31">
         <v>1.2291666666666701E-3</v>
       </c>
       <c r="D24" s="6" t="s">
@@ -1264,7 +1321,10 @@
       <c r="F24" s="4">
         <v>3.271E-3</v>
       </c>
-      <c r="G24" s="4"/>
+      <c r="G24" s="29">
+        <f t="shared" si="1"/>
+        <v>1.0626592118478335</v>
+      </c>
       <c r="H24" s="6" t="s">
         <v>28</v>
       </c>
@@ -1281,14 +1341,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="13" x14ac:dyDescent="0.2">
       <c r="A25" s="19">
         <v>44531</v>
       </c>
       <c r="B25" s="4">
         <v>-2.2000000000000001E-3</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="31">
         <v>1.2291666666666701E-3</v>
       </c>
       <c r="D25" s="6" t="s">
@@ -1301,7 +1361,10 @@
       <c r="F25" s="4">
         <v>3.2650000000000001E-3</v>
       </c>
-      <c r="G25" s="4"/>
+      <c r="G25" s="29">
+        <f t="shared" si="1"/>
+        <v>1.0590151763005387</v>
+      </c>
       <c r="H25" s="6" t="s">
         <v>28</v>
       </c>
@@ -1318,14 +1381,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="13" x14ac:dyDescent="0.2">
       <c r="A26" s="19">
         <v>44562</v>
       </c>
       <c r="B26" s="4">
         <v>2.5999999999999999E-3</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="31">
         <v>1.2291666666666701E-3</v>
       </c>
       <c r="D26" s="6" t="s">
@@ -1338,7 +1401,10 @@
       <c r="F26" s="4">
         <v>3.4989999999999999E-3</v>
       </c>
-      <c r="G26" s="4"/>
+      <c r="G26" s="29">
+        <f t="shared" si="1"/>
+        <v>1.0604669096047172</v>
+      </c>
       <c r="H26" s="6" t="s">
         <v>28</v>
       </c>
@@ -1355,14 +1421,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="13" x14ac:dyDescent="0.2">
       <c r="A27" s="19">
         <v>44593</v>
       </c>
       <c r="B27" s="4">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="31">
         <v>1.2291666666666701E-3</v>
       </c>
       <c r="D27" s="6" t="s">
@@ -1375,7 +1441,10 @@
       <c r="F27" s="4">
         <v>3.5659999999999997E-3</v>
       </c>
-      <c r="G27" s="4"/>
+      <c r="G27" s="29">
+        <f t="shared" si="1"/>
+        <v>1.0599057458650514</v>
+      </c>
       <c r="H27" s="6" t="s">
         <v>28</v>
       </c>
@@ -1392,14 +1461,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="13" x14ac:dyDescent="0.2">
       <c r="A28" s="19">
         <v>44621</v>
       </c>
       <c r="B28" s="4">
         <v>1.03E-2</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="31">
         <v>1.2291666666666701E-3</v>
       </c>
       <c r="D28" s="6" t="s">
@@ -1412,7 +1481,10 @@
       <c r="F28" s="4">
         <v>2.1609999999999997E-3</v>
       </c>
-      <c r="G28" s="4"/>
+      <c r="G28" s="29">
+        <f t="shared" si="1"/>
+        <v>1.0695199742348356</v>
+      </c>
       <c r="H28" s="6" t="s">
         <v>28</v>
       </c>
@@ -1429,14 +1501,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="13" x14ac:dyDescent="0.2">
       <c r="A29" s="19">
         <v>44652</v>
       </c>
       <c r="B29" s="4">
         <v>1.3899999999999999E-2</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="31">
         <v>1.2291666666666701E-3</v>
       </c>
       <c r="D29" s="6" t="s">
@@ -1449,7 +1521,10 @@
       <c r="F29" s="4">
         <v>4.1589999999999995E-3</v>
       </c>
-      <c r="G29" s="4"/>
+      <c r="G29" s="29">
+        <f t="shared" si="1"/>
+        <v>1.0830716835750362</v>
+      </c>
       <c r="H29" s="6" t="s">
         <v>28</v>
       </c>
@@ -1466,14 +1541,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" ht="13" x14ac:dyDescent="0.2">
       <c r="A30" s="19">
         <v>44682</v>
       </c>
       <c r="B30" s="4">
         <v>-1.6000000000000001E-3</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="31">
         <v>1.2291666666666701E-3</v>
       </c>
       <c r="D30" s="6" t="s">
@@ -1486,7 +1561,10 @@
       <c r="F30" s="4">
         <v>3.2009999999999999E-3</v>
       </c>
-      <c r="G30" s="4"/>
+      <c r="G30" s="29">
+        <f t="shared" si="1"/>
+        <v>1.0800074932702552</v>
+      </c>
       <c r="H30" s="6" t="s">
         <v>28</v>
       </c>
@@ -1503,14 +1581,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="13" x14ac:dyDescent="0.2">
       <c r="A31" s="19">
         <v>44713</v>
       </c>
       <c r="B31" s="4">
         <v>1.0699999999999999E-2</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="31">
         <v>1.2291666666666701E-3</v>
       </c>
       <c r="D31" s="6" t="s">
@@ -1523,7 +1601,10 @@
       <c r="F31" s="4">
         <v>3.2650000000000001E-3</v>
       </c>
-      <c r="G31" s="4"/>
+      <c r="G31" s="29">
+        <f t="shared" si="1"/>
+        <v>1.0902360642377689</v>
+      </c>
       <c r="H31" s="6" t="s">
         <v>28</v>
       </c>
@@ -1540,14 +1621,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" ht="13" x14ac:dyDescent="0.2">
       <c r="A32" s="19">
         <v>44743</v>
       </c>
       <c r="B32" s="4">
         <v>1.0699999999999999E-2</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="31">
         <v>1.2291666666666701E-3</v>
       </c>
       <c r="D32" s="6" t="s">
@@ -1560,7 +1641,10 @@
       <c r="F32" s="4">
         <v>7.3400000000000006E-4</v>
       </c>
-      <c r="G32" s="4"/>
+      <c r="G32" s="29">
+        <f t="shared" si="1"/>
+        <v>1.100561508296154</v>
+      </c>
       <c r="H32" s="6" t="s">
         <v>28</v>
       </c>
@@ -1577,14 +1661,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="13" x14ac:dyDescent="0.2">
       <c r="A33" s="19">
         <v>44774</v>
       </c>
       <c r="B33" s="4">
         <v>1.29E-2</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="31">
         <v>1.2291666666666701E-3</v>
       </c>
       <c r="D33" s="6" t="s">
@@ -1597,7 +1681,10 @@
       <c r="F33" s="4">
         <v>3.5739999999999999E-3</v>
       </c>
-      <c r="G33" s="4"/>
+      <c r="G33" s="29">
+        <f t="shared" si="1"/>
+        <v>1.1134059782325603</v>
+      </c>
       <c r="H33" s="6" t="s">
         <v>28</v>
       </c>
@@ -1614,14 +1701,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" ht="13" x14ac:dyDescent="0.2">
       <c r="A34" s="19">
         <v>44805</v>
       </c>
       <c r="B34" s="4">
         <v>-2.8999999999999998E-3</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="31">
         <v>1.2291666666666701E-3</v>
       </c>
       <c r="D34" s="6" t="s">
@@ -1634,7 +1721,10 @@
       <c r="F34" s="4">
         <v>4.0879999999999996E-3</v>
       </c>
-      <c r="G34" s="4"/>
+      <c r="G34" s="29">
+        <f t="shared" si="1"/>
+        <v>1.1088085393807749</v>
+      </c>
       <c r="H34" s="6" t="s">
         <v>28</v>
       </c>
@@ -1651,14 +1741,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" ht="13" x14ac:dyDescent="0.2">
       <c r="A35" s="19">
         <v>44835</v>
       </c>
       <c r="B35" s="4">
         <v>8.8000000000000005E-3</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="31">
         <v>1.2291666666666701E-3</v>
       </c>
       <c r="D35" s="6" t="s">
@@ -1671,7 +1761,10 @@
       <c r="F35" s="4">
         <v>2.6829999999999996E-3</v>
       </c>
-      <c r="G35" s="4"/>
+      <c r="G35" s="29">
+        <f t="shared" si="1"/>
+        <v>1.1172031440310035</v>
+      </c>
       <c r="H35" s="6" t="s">
         <v>28</v>
       </c>
@@ -1688,14 +1781,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" ht="13" x14ac:dyDescent="0.2">
       <c r="A36" s="19">
         <v>44866</v>
       </c>
       <c r="B36" s="4">
         <v>1.34E-2</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="31">
         <v>1.2291666666666701E-3</v>
       </c>
       <c r="D36" s="6" t="s">
@@ -1708,7 +1801,10 @@
       <c r="F36" s="4">
         <v>3.6540000000000001E-3</v>
       </c>
-      <c r="G36" s="4"/>
+      <c r="G36" s="29">
+        <f t="shared" si="1"/>
+        <v>1.1308004372964808</v>
+      </c>
       <c r="H36" s="6" t="s">
         <v>28</v>
       </c>
@@ -1732,7 +1828,7 @@
       <c r="B37" s="4">
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="31">
         <v>1.2291666666666701E-3</v>
       </c>
       <c r="D37" s="6" t="s">
@@ -1745,7 +1841,10 @@
       <c r="F37" s="4">
         <v>6.8950000000000001E-3</v>
       </c>
-      <c r="G37" s="4"/>
+      <c r="G37" s="29">
+        <f t="shared" si="1"/>
+        <v>1.1346121771038677</v>
+      </c>
       <c r="H37" s="6" t="s">
         <v>28</v>
       </c>
@@ -1769,7 +1868,7 @@
       <c r="B38" s="4">
         <v>1.06E-2</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="31">
         <v>1.2291666666666701E-3</v>
       </c>
       <c r="D38" s="6" t="s">
@@ -1782,7 +1881,10 @@
       <c r="F38" s="4">
         <v>5.2049999999999996E-3</v>
       </c>
-      <c r="G38" s="4"/>
+      <c r="G38" s="29">
+        <f t="shared" si="1"/>
+        <v>1.1452444387134786</v>
+      </c>
       <c r="H38" s="6" t="s">
         <v>28</v>
       </c>
@@ -1806,7 +1908,7 @@
       <c r="B39" s="4">
         <v>-3.8E-3</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="31">
         <v>1.2291666666666701E-3</v>
       </c>
       <c r="D39" s="6" t="s">
@@ -1819,7 +1921,10 @@
       <c r="F39" s="4">
         <v>5.5400000000000007E-3</v>
       </c>
-      <c r="G39" s="4"/>
+      <c r="G39" s="29">
+        <f t="shared" si="1"/>
+        <v>1.1394848135571154</v>
+      </c>
       <c r="H39" s="6" t="s">
         <v>28</v>
       </c>
@@ -1843,7 +1948,7 @@
       <c r="B40" s="4">
         <v>1.8E-3</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="31">
         <v>1.2291666666666701E-3</v>
       </c>
       <c r="D40" s="6" t="s">
@@ -1856,7 +1961,10 @@
       <c r="F40" s="4">
         <v>8.2100000000000003E-3</v>
       </c>
-      <c r="G40" s="4"/>
+      <c r="G40" s="29">
+        <f t="shared" si="1"/>
+        <v>1.140135269471521</v>
+      </c>
       <c r="H40" s="6" t="s">
         <v>28</v>
       </c>
@@ -1880,7 +1988,7 @@
       <c r="B41" s="4">
         <v>9.5999999999999992E-3</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="31">
         <v>1.2291666666666701E-3</v>
       </c>
       <c r="D41" s="6" t="s">
@@ -1893,7 +2001,10 @@
       <c r="F41" s="4">
         <v>4.7879999999999997E-3</v>
       </c>
-      <c r="G41" s="4"/>
+      <c r="G41" s="29">
+        <f t="shared" si="1"/>
+        <v>1.1496791517897222</v>
+      </c>
       <c r="H41" s="6" t="s">
         <v>28</v>
       </c>
@@ -1917,7 +2028,7 @@
       <c r="B42" s="4">
         <v>1.01E-2</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="31">
         <v>1.2291666666666701E-3</v>
       </c>
       <c r="D42" s="6" t="s">
@@ -1930,7 +2041,10 @@
       <c r="F42" s="4">
         <v>5.9389999999999998E-3</v>
       </c>
-      <c r="G42" s="4"/>
+      <c r="G42" s="29">
+        <f t="shared" si="1"/>
+        <v>1.159877763932057</v>
+      </c>
       <c r="H42" s="6" t="s">
         <v>28</v>
       </c>
@@ -1954,7 +2068,7 @@
       <c r="B43" s="4">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="31">
         <v>1.2291666666666701E-3</v>
       </c>
       <c r="D43" s="6" t="s">
@@ -1967,7 +2081,10 @@
       <c r="F43" s="4">
         <v>6.8530000000000006E-3</v>
       </c>
-      <c r="G43" s="4"/>
+      <c r="G43" s="29">
+        <f t="shared" si="1"/>
+        <v>1.1612357874806607</v>
+      </c>
       <c r="H43" s="6" t="s">
         <v>28</v>
       </c>
@@ -1991,7 +2108,7 @@
       <c r="B44" s="4">
         <v>2.87E-2</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="31">
         <v>1.2291666666666701E-3</v>
       </c>
       <c r="D44" s="6" t="s">
@@ -2004,7 +2121,10 @@
       <c r="F44" s="4">
         <v>5.6520000000000008E-3</v>
       </c>
-      <c r="G44" s="4"/>
+      <c r="G44" s="29">
+        <f t="shared" si="1"/>
+        <v>1.193135902259244</v>
+      </c>
       <c r="H44" s="6" t="s">
         <v>28</v>
       </c>
@@ -2028,7 +2148,7 @@
       <c r="B45" s="4">
         <v>2.0500000000000001E-2</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="31">
         <v>1.2291666666666701E-3</v>
       </c>
       <c r="D45" s="6" t="s">
@@ -2041,7 +2161,10 @@
       <c r="F45" s="4">
         <v>8.6370000000000006E-3</v>
       </c>
-      <c r="G45" s="4"/>
+      <c r="G45" s="29">
+        <f t="shared" si="1"/>
+        <v>1.2161286253756982</v>
+      </c>
       <c r="H45" s="6" t="s">
         <v>28</v>
       </c>
@@ -2065,7 +2188,7 @@
       <c r="B46" s="4">
         <v>2.5899999999999999E-2</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="31">
         <v>1.2291666666666701E-3</v>
       </c>
       <c r="D46" s="6" t="s">
@@ -2078,7 +2201,10 @@
       <c r="F46" s="4">
         <v>7.0330000000000002E-3</v>
       </c>
-      <c r="G46" s="4"/>
+      <c r="G46" s="29">
+        <f t="shared" si="1"/>
+        <v>1.2461315320042379</v>
+      </c>
       <c r="H46" s="6" t="s">
         <v>28</v>
       </c>
@@ -2102,7 +2228,7 @@
       <c r="B47" s="4">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47" s="31">
         <v>1.2291666666666701E-3</v>
       </c>
       <c r="D47" s="6" t="s">
@@ -2115,7 +2241,10 @@
       <c r="F47" s="4">
         <v>6.0799999999999995E-3</v>
       </c>
-      <c r="G47" s="4"/>
+      <c r="G47" s="29">
+        <f t="shared" si="1"/>
+        <v>1.25456888091885</v>
+      </c>
       <c r="H47" s="6" t="s">
         <v>28</v>
       </c>
@@ -2139,7 +2268,7 @@
       <c r="B48" s="4">
         <v>2.06E-2</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C48" s="31">
         <v>1.2291666666666701E-3</v>
       </c>
       <c r="D48" s="6" t="s">
@@ -2152,7 +2281,10 @@
       <c r="F48" s="4">
         <v>6.4970000000000002E-3</v>
       </c>
-      <c r="G48" s="4"/>
+      <c r="G48" s="29">
+        <f t="shared" si="1"/>
+        <v>1.2788709256163155</v>
+      </c>
       <c r="H48" s="6" t="s">
         <v>28</v>
       </c>
@@ -2176,7 +2308,7 @@
       <c r="B49" s="4">
         <v>1.8200000000000001E-2</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49" s="31">
         <v>1.2291666666666701E-3</v>
       </c>
       <c r="D49" s="6" t="s">
@@ -2189,7 +2321,10 @@
       <c r="F49" s="4">
         <v>6.071E-3</v>
       </c>
-      <c r="G49" s="4"/>
+      <c r="G49" s="29">
+        <f t="shared" si="1"/>
+        <v>1.3005744309497957</v>
+      </c>
       <c r="H49" s="6" t="s">
         <v>28</v>
       </c>
@@ -2213,7 +2348,7 @@
       <c r="B50" s="4">
         <v>1.78E-2</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C50" s="31">
         <v>1.2291666666666701E-3</v>
       </c>
       <c r="D50" s="6" t="s">
@@ -2226,7 +2361,10 @@
       <c r="F50" s="4">
         <v>6.8019999999999999E-3</v>
       </c>
-      <c r="G50" s="4"/>
+      <c r="G50" s="29">
+        <f t="shared" si="1"/>
+        <v>1.3221260330826599</v>
+      </c>
       <c r="H50" s="6" t="s">
         <v>28</v>
       </c>
@@ -2250,7 +2388,7 @@
       <c r="B51" s="4">
         <v>1.72E-2</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C51" s="31">
         <v>1.2291666666666701E-3</v>
       </c>
       <c r="D51" s="6" t="s">
@@ -2263,7 +2401,10 @@
       <c r="F51" s="4">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="G51" s="4"/>
+      <c r="G51" s="29">
+        <f t="shared" si="1"/>
+        <v>1.3432414876026841</v>
+      </c>
       <c r="H51" s="6" t="s">
         <v>28</v>
       </c>
@@ -2287,7 +2428,7 @@
       <c r="B52" s="4">
         <v>1.6299999999999999E-2</v>
       </c>
-      <c r="C52" s="4">
+      <c r="C52" s="31">
         <v>1.2291666666666701E-3</v>
       </c>
       <c r="D52" s="6" t="s">
@@ -2300,7 +2441,10 @@
       <c r="F52" s="4">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="G52" s="4"/>
+      <c r="G52" s="29">
+        <f t="shared" si="1"/>
+        <v>1.3634852561887629</v>
+      </c>
       <c r="H52" s="6" t="s">
         <v>28</v>
       </c>
@@ -2324,7 +2468,7 @@
       <c r="B53" s="4">
         <v>9.7999999999999997E-3</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53" s="31">
         <v>1.2291666666666701E-3</v>
       </c>
       <c r="D53" s="6" t="s">
@@ -2337,7 +2481,10 @@
       <c r="F53" s="4">
         <v>6.3368161193302353E-3</v>
       </c>
-      <c r="G53" s="4"/>
+      <c r="G53" s="29">
+        <f t="shared" si="1"/>
+        <v>1.3751714610720143</v>
+      </c>
       <c r="H53" s="6" t="s">
         <v>28</v>
       </c>
@@ -2361,7 +2508,7 @@
       <c r="B54" s="4">
         <v>1.1900000000000001E-2</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C54" s="31">
         <v>1.2291666666666701E-3</v>
       </c>
       <c r="D54" s="6" t="s">
@@ -2374,7 +2521,10 @@
       <c r="F54" s="4">
         <v>6.1155211581482849E-3</v>
       </c>
-      <c r="G54" s="4"/>
+      <c r="G54" s="29">
+        <f t="shared" si="1"/>
+        <v>1.3898456865378703</v>
+      </c>
       <c r="H54" s="6" t="s">
         <v>28</v>
       </c>
@@ -2398,7 +2548,7 @@
       <c r="B55" s="4">
         <v>2.06E-2</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C55" s="31">
         <v>1.2291666666666701E-3</v>
       </c>
       <c r="D55" s="6" t="s">
@@ -2411,7 +2561,10 @@
       <c r="F55" s="4">
         <v>7.451987053460396E-3</v>
       </c>
-      <c r="G55" s="4"/>
+      <c r="G55" s="29">
+        <f t="shared" si="1"/>
+        <v>1.4167681556908476</v>
+      </c>
       <c r="H55" s="6" t="s">
         <v>28</v>
       </c>
@@ -2435,7 +2588,7 @@
       <c r="B56" s="4">
         <v>1.49E-2</v>
       </c>
-      <c r="C56" s="4">
+      <c r="C56" s="31">
         <v>1.2291666666666701E-3</v>
       </c>
       <c r="D56" s="6" t="s">
@@ -2448,7 +2601,10 @@
       <c r="F56" s="4">
         <v>3.5365198939893983E-3</v>
       </c>
-      <c r="G56" s="4"/>
+      <c r="G56" s="29">
+        <f t="shared" si="1"/>
+        <v>1.4361365570192712</v>
+      </c>
       <c r="H56" s="6" t="s">
         <v>28</v>
       </c>
@@ -2472,7 +2628,7 @@
       <c r="B57" s="4">
         <v>1.3299999999999999E-2</v>
       </c>
-      <c r="C57" s="4">
+      <c r="C57" s="31">
         <v>1.2291666666666701E-3</v>
       </c>
       <c r="D57" s="6" t="s">
@@ -2485,7 +2641,10 @@
       <c r="F57" s="4">
         <v>4.7978125371512803E-3</v>
       </c>
-      <c r="G57" s="4"/>
+      <c r="G57" s="29">
+        <f t="shared" si="1"/>
+        <v>1.4534719220429579</v>
+      </c>
       <c r="H57" s="6" t="s">
         <v>28</v>
       </c>
@@ -2509,7 +2668,7 @@
       <c r="B58" s="4">
         <v>1.2E-2</v>
       </c>
-      <c r="C58" s="4">
+      <c r="C58" s="31">
         <v>1.2291666666666701E-3</v>
       </c>
       <c r="D58" s="6" t="s">
@@ -2522,7 +2681,10 @@
       <c r="F58" s="4">
         <v>4.5593989537469071E-3</v>
       </c>
-      <c r="G58" s="4"/>
+      <c r="G58" s="29">
+        <f t="shared" si="1"/>
+        <v>1.4691270258699625</v>
+      </c>
       <c r="H58" s="6" t="s">
         <v>28</v>
       </c>
@@ -2546,7 +2708,7 @@
       <c r="B59" s="4">
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="C59" s="4">
+      <c r="C59" s="31">
         <v>1.2291666666666701E-3</v>
       </c>
       <c r="D59" s="6" t="s">
@@ -2559,7 +2721,10 @@
       <c r="F59" s="4">
         <v>5.0434731400352817E-3</v>
       </c>
-      <c r="G59" s="4"/>
+      <c r="G59" s="29">
+        <f t="shared" si="1"/>
+        <v>1.4798088036205586</v>
+      </c>
       <c r="H59" s="6" t="s">
         <v>28</v>
       </c>
@@ -2583,7 +2748,7 @@
       <c r="B60" s="4">
         <v>7.1999999999999998E-3</v>
       </c>
-      <c r="C60" s="4">
+      <c r="C60" s="31">
         <v>1.2291666666666701E-3</v>
       </c>
       <c r="D60" s="6" t="s">
@@ -2596,7 +2761,10 @@
       <c r="F60" s="4">
         <v>6.8638775886025183E-3</v>
       </c>
-      <c r="G60" s="4"/>
+      <c r="G60" s="29">
+        <f t="shared" si="1"/>
+        <v>1.4886444953521762</v>
+      </c>
       <c r="H60" s="6" t="s">
         <v>28</v>
       </c>
@@ -2620,7 +2788,7 @@
       <c r="B61" s="4">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="C61" s="4">
+      <c r="C61" s="31">
         <v>1.2291666666666701E-3</v>
       </c>
       <c r="D61" s="6" t="s">
@@ -2633,7 +2801,10 @@
       <c r="F61" s="4">
         <v>7.0997456063051079E-3</v>
       </c>
-      <c r="G61" s="4"/>
+      <c r="G61" s="29">
+        <f t="shared" si="1"/>
+        <v>1.4923226877927758</v>
+      </c>
       <c r="H61" s="6" t="s">
         <v>28</v>
       </c>
@@ -2657,7 +2828,7 @@
       <c r="B62" s="4">
         <v>1.18E-2</v>
       </c>
-      <c r="C62" s="4">
+      <c r="C62" s="31">
         <v>1.2291666666666701E-3</v>
       </c>
       <c r="D62" s="6" t="s">
@@ -2667,10 +2838,13 @@
         <f t="shared" si="0"/>
         <v>1.057083333333333E-2</v>
       </c>
-      <c r="F62" s="22">
+      <c r="F62" s="21">
         <v>7.3509988443123397E-3</v>
       </c>
-      <c r="G62" s="4"/>
+      <c r="G62" s="29">
+        <f t="shared" si="1"/>
+        <v>1.5080977822049855</v>
+      </c>
       <c r="H62" s="6" t="s">
         <v>28</v>
       </c>
@@ -2694,7 +2868,7 @@
       <c r="B63" s="4">
         <v>4.7999999999999996E-3</v>
       </c>
-      <c r="C63" s="4">
+      <c r="C63" s="31">
         <v>1.2291666666666701E-3</v>
       </c>
       <c r="D63" s="6" t="s">
@@ -2707,7 +2881,10 @@
       <c r="F63" s="4">
         <v>7.207214589795008E-3</v>
       </c>
-      <c r="G63" s="4"/>
+      <c r="G63" s="29">
+        <f t="shared" si="1"/>
+        <v>1.5134829480356091</v>
+      </c>
       <c r="H63" s="6" t="s">
         <v>28</v>
       </c>
@@ -2731,7 +2908,7 @@
       <c r="B64" s="4">
         <v>1.5E-3</v>
       </c>
-      <c r="C64" s="4">
+      <c r="C64" s="31">
         <v>1.2291666666666701E-3</v>
       </c>
       <c r="D64" s="6" t="s">
@@ -2744,7 +2921,10 @@
       <c r="F64" s="4">
         <v>5.6667480270118364E-3</v>
       </c>
-      <c r="G64" s="4"/>
+      <c r="G64" s="29">
+        <f t="shared" si="1"/>
+        <v>1.5138928496673687</v>
+      </c>
       <c r="H64" s="6" t="s">
         <v>28</v>
       </c>
@@ -2768,7 +2948,7 @@
       <c r="B65" s="4">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="C65" s="4">
+      <c r="C65" s="31">
         <v>1.2291666666666701E-3</v>
       </c>
       <c r="D65" s="6" t="s">
@@ -2781,7 +2961,10 @@
       <c r="F65" s="4">
         <v>6.6663160917912467E-3</v>
       </c>
-      <c r="G65" s="4"/>
+      <c r="G65" s="29">
+        <f t="shared" si="1"/>
+        <v>1.5309556836604947</v>
+      </c>
       <c r="H65" s="6" t="s">
         <v>28</v>
       </c>
@@ -2805,7 +2988,7 @@
       <c r="B66" s="4">
         <v>2.8E-3</v>
       </c>
-      <c r="C66" s="4">
+      <c r="C66" s="31">
         <v>1.2291666666666701E-3</v>
       </c>
       <c r="D66" s="6" t="s">
@@ -2815,10 +2998,13 @@
         <f t="shared" si="0"/>
         <v>1.5708333333333299E-3</v>
       </c>
-      <c r="F66" s="22">
+      <c r="F66" s="21">
         <v>6.1761384869465363E-3</v>
       </c>
-      <c r="G66" s="4"/>
+      <c r="G66" s="29">
+        <f t="shared" si="1"/>
+        <v>1.5333605598802447</v>
+      </c>
       <c r="H66" s="6" t="s">
         <v>28</v>
       </c>
@@ -2836,13 +3022,13 @@
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A67" s="23">
+      <c r="A67" s="22">
         <v>45809</v>
       </c>
       <c r="B67" s="4">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="C67" s="4">
+      <c r="C67" s="31">
         <v>1.2291666666666701E-3</v>
       </c>
       <c r="D67" s="6" t="s">
@@ -2855,7 +3041,10 @@
       <c r="F67" s="4">
         <v>5.5032388437608049E-3</v>
       </c>
-      <c r="G67" s="4"/>
+      <c r="G67" s="29">
+        <f t="shared" si="1"/>
+        <v>1.5351558695357712</v>
+      </c>
       <c r="H67" s="6" t="s">
         <v>28</v>
       </c>
@@ -2873,13 +3062,13 @@
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A68" s="23">
+      <c r="A68" s="22">
         <v>45839</v>
       </c>
       <c r="B68" s="4">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="C68" s="4">
+      <c r="C68" s="31">
         <v>1.2291666666666701E-3</v>
       </c>
       <c r="D68" s="6" t="s">
@@ -2892,7 +3081,10 @@
       <c r="F68" s="4">
         <v>5.504893238434061E-3</v>
       </c>
-      <c r="G68" s="4"/>
+      <c r="G68" s="29">
+        <f t="shared" si="1"/>
+        <v>1.5341900006345217</v>
+      </c>
       <c r="H68" s="6" t="s">
         <v>28</v>
       </c>
@@ -2910,13 +3102,13 @@
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A69" s="23">
+      <c r="A69" s="22">
         <v>45870</v>
       </c>
       <c r="B69" s="4">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="C69" s="4">
+      <c r="C69" s="31">
         <v>1.2291666666666701E-3</v>
       </c>
       <c r="D69" s="6" t="s">
@@ -2929,7 +3121,10 @@
       <c r="F69" s="4">
         <v>5.1982525023503978E-3</v>
       </c>
-      <c r="G69" s="4"/>
+      <c r="G69" s="29">
+        <f t="shared" si="1"/>
+        <v>1.5415093654292156</v>
+      </c>
       <c r="H69" s="6" t="s">
         <v>28</v>
       </c>
@@ -2947,7 +3142,11 @@
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F70" s="24"/>
+      <c r="F70" s="23"/>
+      <c r="G70" s="28">
+        <f>POWER(G69,12/COUNT(G15:G69))-1</f>
+        <v>9.902212765028362E-2</v>
+      </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
